--- a/2 курс 2 семестр/ТВиМЛ/Комбинаторика.xlsx
+++ b/2 курс 2 семестр/ТВиМЛ/Комбинаторика.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>Кол-во специалистов</t>
   </si>
@@ -241,6 +241,36 @@
   </si>
   <si>
     <t>Кол-во нечетных чисел</t>
+  </si>
+  <si>
+    <t>Задача 10b</t>
+  </si>
+  <si>
+    <t>Сколько различных трёхзначных чисел можно составить из цифр 7, 6, 5, 0, если цифры в записи числа не могут повторяться?</t>
+  </si>
+  <si>
+    <t>Задача 11а</t>
+  </si>
+  <si>
+    <t>Сколько четных трёхзначных чисел можно составить из цифр 3, 4, 5, 6? (Цифры в записи числа не могут повторяться).</t>
+  </si>
+  <si>
+    <t>Задача 11b</t>
+  </si>
+  <si>
+    <t>Сколько четных трёхзначных чисел можно составить из цифр 3, 4, 5, 6? (Цифры в записи числа могут повторяться).</t>
+  </si>
+  <si>
+    <t>Кол-во четных чисел</t>
+  </si>
+  <si>
+    <t>Задача 12а</t>
+  </si>
+  <si>
+    <t>Сколько различных дробей можно составить с использованием цифр 2, 3, 4? (В числителе и знаменателе не может быть одна и та же цифра.)</t>
+  </si>
+  <si>
+    <t>Кол-во дробей</t>
   </si>
 </sst>
 </file>
@@ -565,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1242,6 +1272,138 @@
         <v>6</v>
       </c>
     </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>59</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118">
+        <f>PERMUT(B116,B117)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124">
+        <f>PERMUT(B123,B122/2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>80</v>
+      </c>
+      <c r="B130">
+        <f>POWER(B128,B129)/2</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135">
+        <f>B134*2</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
